--- a/graphs/dimensional_fragility/subregion_dataset.xlsx
+++ b/graphs/dimensional_fragility/subregion_dataset.xlsx
@@ -2091,7 +2091,7 @@
         <v>2012</v>
       </c>
       <c r="D2" t="n">
-        <v>66.260935825897</v>
+        <v>66.2609358260388</v>
       </c>
     </row>
     <row r="3">
@@ -2105,7 +2105,7 @@
         <v>2013</v>
       </c>
       <c r="D3" t="n">
-        <v>67.0060218401221</v>
+        <v>67.0060218402303</v>
       </c>
     </row>
     <row r="4">
@@ -2119,7 +2119,7 @@
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>65.7620535486471</v>
+        <v>65.7620535487532</v>
       </c>
     </row>
     <row r="5">
@@ -2133,7 +2133,7 @@
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>67.0551902122688</v>
+        <v>67.0551902123755</v>
       </c>
     </row>
     <row r="6">
@@ -2147,7 +2147,7 @@
         <v>2016</v>
       </c>
       <c r="D6" t="n">
-        <v>70.1930565956028</v>
+        <v>70.1930565957116</v>
       </c>
     </row>
     <row r="7">
@@ -2161,7 +2161,7 @@
         <v>2017</v>
       </c>
       <c r="D7" t="n">
-        <v>69.7799869436354</v>
+        <v>69.7799869437419</v>
       </c>
     </row>
     <row r="8">
@@ -2175,7 +2175,7 @@
         <v>2018</v>
       </c>
       <c r="D8" t="n">
-        <v>72.1386322309994</v>
+        <v>72.1386322311099</v>
       </c>
     </row>
     <row r="9">
@@ -2189,7 +2189,7 @@
         <v>2012</v>
       </c>
       <c r="D9" t="n">
-        <v>73.396981027188</v>
+        <v>73.3969810284793</v>
       </c>
     </row>
     <row r="10">
@@ -2203,7 +2203,7 @@
         <v>2013</v>
       </c>
       <c r="D10" t="n">
-        <v>74.6292079240009</v>
+        <v>74.6292079252922</v>
       </c>
     </row>
     <row r="11">
@@ -2217,7 +2217,7 @@
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>74.0946561153985</v>
+        <v>74.0946561166894</v>
       </c>
     </row>
     <row r="12">
@@ -2231,7 +2231,7 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>72.5005712880322</v>
+        <v>72.5005712893212</v>
       </c>
     </row>
     <row r="13">
@@ -2245,7 +2245,7 @@
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0383291888093</v>
+        <v>71.0383291900928</v>
       </c>
     </row>
     <row r="14">
@@ -2259,7 +2259,7 @@
         <v>2017</v>
       </c>
       <c r="D14" t="n">
-        <v>67.0332980762934</v>
+        <v>67.0332980775662</v>
       </c>
     </row>
     <row r="15">
@@ -2273,7 +2273,7 @@
         <v>2018</v>
       </c>
       <c r="D15" t="n">
-        <v>66.4263809128776</v>
+        <v>66.426380914153</v>
       </c>
     </row>
     <row r="16">
@@ -2287,7 +2287,7 @@
         <v>2012</v>
       </c>
       <c r="D16" t="n">
-        <v>52.235611150118</v>
+        <v>52.2356111499921</v>
       </c>
     </row>
     <row r="17">
@@ -2301,7 +2301,7 @@
         <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9579684833117</v>
+        <v>46.9579684834913</v>
       </c>
     </row>
     <row r="18">
@@ -2315,7 +2315,7 @@
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>46.1698032733186</v>
+        <v>46.1698032735251</v>
       </c>
     </row>
     <row r="19">
@@ -2329,7 +2329,7 @@
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>44.996993102503</v>
+        <v>44.9969931027102</v>
       </c>
     </row>
     <row r="20">
@@ -2343,7 +2343,7 @@
         <v>2016</v>
       </c>
       <c r="D20" t="n">
-        <v>43.6536849502604</v>
+        <v>43.6536849504662</v>
       </c>
     </row>
     <row r="21">
@@ -2357,7 +2357,7 @@
         <v>2017</v>
       </c>
       <c r="D21" t="n">
-        <v>43.2405856976326</v>
+        <v>43.2405856978372</v>
       </c>
     </row>
     <row r="22">
@@ -2371,7 +2371,7 @@
         <v>2018</v>
       </c>
       <c r="D22" t="n">
-        <v>43.9243982250283</v>
+        <v>43.9243982252343</v>
       </c>
     </row>
     <row r="23">
@@ -2385,7 +2385,7 @@
         <v>2012</v>
       </c>
       <c r="D23" t="n">
-        <v>46.8257202665502</v>
+        <v>46.8257202665014</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>2013</v>
       </c>
       <c r="D24" t="n">
-        <v>43.9869130291988</v>
+        <v>43.9869130299884</v>
       </c>
     </row>
     <row r="25">
@@ -2413,7 +2413,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>42.9455226890505</v>
+        <v>42.9455226899338</v>
       </c>
     </row>
     <row r="26">
@@ -2427,7 +2427,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>42.6230623047132</v>
+        <v>42.6230623055979</v>
       </c>
     </row>
     <row r="27">
@@ -2441,7 +2441,7 @@
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>43.4508875817534</v>
+        <v>43.4508875826408</v>
       </c>
     </row>
     <row r="28">
@@ -2455,7 +2455,7 @@
         <v>2017</v>
       </c>
       <c r="D28" t="n">
-        <v>45.512651587363</v>
+        <v>45.5126515882537</v>
       </c>
     </row>
     <row r="29">
@@ -2469,7 +2469,7 @@
         <v>2018</v>
       </c>
       <c r="D29" t="n">
-        <v>49.5481931059446</v>
+        <v>49.5481931068406</v>
       </c>
     </row>
   </sheetData>
